--- a/Matlab/Valori DFE e E_0.xlsx
+++ b/Matlab/Valori DFE e E_0.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Volume_D\Programming\Tesi\Tesi_2\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992AD645-2914-4854-AEB5-FEE355433099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B568DE-5187-43A1-9905-17C5E267C4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{7B3E8222-E055-4B71-A6C5-5A7244A90B4F}"/>
+    <workbookView xWindow="28680" yWindow="-9495" windowWidth="29040" windowHeight="15990" xr2:uid="{7B3E8222-E055-4B71-A6C5-5A7244A90B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$Q$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Foglio1!$A$1:$F$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabella13[#All]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="10">
   <si>
     <t>SC</t>
   </si>
@@ -68,12 +68,15 @@
   <si>
     <t>DFE type</t>
   </si>
+  <si>
+    <t>DIFF.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +85,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -104,12 +122,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -123,6 +135,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -168,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,59 +194,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -260,6 +475,21 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -272,6 +502,24 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -285,6 +533,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -298,6 +564,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -311,6 +595,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -324,6 +626,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -337,6 +657,24 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.89999084444715716"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -352,7 +690,228 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -367,18 +926,1042 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Differenza 1 caso 2 caso</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.5015054068970036E-2"/>
+          <c:y val="0.1408350526179207"/>
+          <c:w val="0.88889889457780302"/>
+          <c:h val="0.78959058319647524"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Foglio1!$A$2:$B$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>B</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>C</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$O$2:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0400000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.10560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.19229999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8499999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.1512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.0300000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.9200000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.12829999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.20329999999999993</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C01-4297-B4B7-38EC1B8E01C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="857478895"/>
+        <c:axId val="857476975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="857478895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857476975"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="857476975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="857478895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>582958</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>284784</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{267A8FB7-30F9-D067-7303-DDABA8B8C6DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{570A472C-8AE0-416C-8B79-975FC338B24F}" name="Tabella1" displayName="Tabella1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{570A472C-8AE0-416C-8B79-975FC338B24F}" name="Tabella1" displayName="Tabella1" ref="A1:F13" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A1:F13" xr:uid="{570A472C-8AE0-416C-8B79-975FC338B24F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
-    <sortCondition ref="F1:F13"/>
+    <sortCondition ref="A1:A13"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{589C1874-4163-4A51-A006-0CD793E11E8A}" name="Case #" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{4B7AC5E9-AB5E-4193-B6EF-0405A1C8BEBE}" name="DFE type" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{1946F0D3-28FC-4DC0-9252-B64B035DFA90}" name="SC" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{43C1A936-631A-4964-9F70-48E3633F0551}" name="SH" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{998191E7-E240-4C08-8A34-68D0ACFEC561}" name="SA" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{58155552-06D7-4066-8462-BF0427CAF59A}" name="E_0" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{589C1874-4163-4A51-A006-0CD793E11E8A}" name="Case #" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{4B7AC5E9-AB5E-4193-B6EF-0405A1C8BEBE}" name="DFE type" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{1946F0D3-28FC-4DC0-9252-B64B035DFA90}" name="SC" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{43C1A936-631A-4964-9F70-48E3633F0551}" name="SH" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{998191E7-E240-4C08-8A34-68D0ACFEC561}" name="SA" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{58155552-06D7-4066-8462-BF0427CAF59A}" name="E_0" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D472916-9B3B-4E65-A9C6-738F5BD9D35F}" name="Tabella13" displayName="Tabella13" ref="H1:M13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:M13">
+    <sortCondition ref="H1:H13"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E4376893-7084-401A-8DE3-5A1A9E62E432}" name="Case #" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{0D0CA20D-8B86-4221-8D37-1684CE4D4A8F}" name="DFE type" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{987E91A4-AC1C-4FFB-852E-EF1B917DC3B3}" name="SC" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{24CEF329-748E-41D6-9FF7-0741947F7600}" name="SH" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{6386C9C5-6B34-467D-8B01-35DE6AE3BBD2}" name="SA" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{A169839B-C4A9-4208-BBD8-32CCD5A966E4}" name="E_0" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98343CF0-4D20-4B09-A590-B792D567C460}" name="Tabella134" displayName="Tabella134" ref="O18:T30" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O19:T30">
+    <sortCondition ref="O1:O13"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D0FE3FDF-A52C-4528-9C20-FA9785713EA8}" name="Case #" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4355D887-AF26-4093-B66C-B6F1A2E8DB4B}" name="DFE type" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{CCAA0BF4-3C90-4171-8AEA-6EB1053DD160}" name="SC" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{56220885-6A1A-4B89-AE87-E63924B994E4}" name="SH" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0A308885-1709-453C-988B-E136DA7F58CA}" name="SA" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{BEDC6338-B7AE-4ADE-9E64-546E30A48153}" name="E_0" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -701,294 +2284,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23755A94-EC3B-4285-BAA7-F40233800E17}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="6" width="11.08984375" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" style="2" customWidth="1"/>
+    <col min="10" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="16" t="s">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9">
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1.0815999999999999</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="O2">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>6.0400000000000009E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.0566</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="O3">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-0.10560000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C4" s="9">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.1176</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.70709999999999995</v>
+      </c>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.1176</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="O4">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-0.19229999999999992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1.0652999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>3</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <v>1.1137999999999999</v>
+      </c>
+      <c r="O5">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>4.8499999999999988E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1.4956</v>
+      </c>
+      <c r="H6" s="10">
+        <v>3</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M6" s="11">
+        <v>2.7191000000000001</v>
+      </c>
+      <c r="O6">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>1.2235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11">
         <v>0.85709999999999997</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D7" s="11">
         <v>0.1429</v>
       </c>
-      <c r="E2" s="10">
-        <v>0</v>
-      </c>
-      <c r="F2" s="10">
+      <c r="E7" s="11">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.71819999999999995</v>
+      </c>
+      <c r="H7" s="10">
+        <v>3</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.1429</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="O7">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-0.1512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.83609999999999995</v>
+      </c>
+      <c r="O8">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-7.0300000000000029E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2.2082000000000002</v>
+      </c>
+      <c r="H9" s="12">
+        <v>4</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="M9" s="13">
+        <v>2.6257000000000001</v>
+      </c>
+      <c r="O9">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>0.41749999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
         <v>0.5383</v>
       </c>
+      <c r="H10" s="12">
+        <v>4</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.5091</v>
+      </c>
+      <c r="O10">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-2.9200000000000004E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>5</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.8266</v>
+      </c>
+      <c r="H11" s="14">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0</v>
+      </c>
+      <c r="K11" s="15">
+        <v>1</v>
+      </c>
+      <c r="L11" s="15">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15">
+        <v>0.69830000000000003</v>
+      </c>
+      <c r="O11">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-0.12829999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C12" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="D12" s="15">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0.72729999999999995</v>
+      </c>
+      <c r="H12" s="14">
         <v>5</v>
       </c>
-      <c r="C3" s="3">
+      <c r="I12" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="15">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="L12" s="15">
+        <v>0</v>
+      </c>
+      <c r="M12" s="15">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="O12">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>-0.20329999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>5</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.1429</v>
+      </c>
+      <c r="E13" s="15">
         <v>0.85709999999999997</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F13" s="15">
+        <v>1.2679</v>
+      </c>
+      <c r="H13" s="14">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
         <v>0.1429</v>
       </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5383</v>
+      <c r="L13" s="15">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="M13" s="15">
+        <v>3.1669</v>
+      </c>
+      <c r="O13">
+        <f>Tabella13[[#This Row],[E_0]]-Tabella1[[#This Row],[E_0]]</f>
+        <v>1.899</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="18" spans="15:20" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="O18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="T18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1.1419999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O20" s="8">
+        <v>2</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>1</v>
+      </c>
+      <c r="S20" s="9">
+        <v>0</v>
+      </c>
+      <c r="T20" s="9">
+        <v>1.0919000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O21" s="8">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18">
+      <c r="Q21" s="9">
         <v>0.88239999999999996</v>
       </c>
-      <c r="D4" s="18">
+      <c r="R21" s="9">
         <v>0.1176</v>
       </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0.56010000000000004</v>
+      <c r="S21" s="9">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9">
+        <v>0.53539999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+    <row r="22" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O22" s="10">
+        <v>3</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11">
+        <v>1</v>
+      </c>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+      <c r="T22" s="11">
+        <v>1.1137999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O23" s="10">
+        <v>3</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="S23" s="11">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="T23" s="11">
+        <v>2.7191000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O24" s="10">
+        <v>3</v>
+      </c>
+      <c r="P24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="Q24" s="11">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="R24" s="11">
+        <v>0.1429</v>
+      </c>
+      <c r="S24" s="11">
+        <v>0</v>
+      </c>
+      <c r="T24" s="11">
+        <v>0.56699999999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O25" s="12">
+        <v>4</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>1</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0.83609999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O26" s="12">
+        <v>4</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="S26" s="13">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="T26" s="13">
+        <v>2.6257000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O27" s="12">
+        <v>4</v>
+      </c>
+      <c r="P27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="8">
+      <c r="Q27" s="13">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0.1429</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0.5091</v>
+      </c>
+    </row>
+    <row r="28" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O28" s="14">
+        <v>5</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" s="15">
+        <v>0</v>
+      </c>
+      <c r="R28" s="15">
+        <v>1</v>
+      </c>
+      <c r="S28" s="15">
+        <v>0</v>
+      </c>
+      <c r="T28" s="15">
+        <v>0.69830000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O29" s="14">
+        <v>5</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="15">
         <v>0.66669999999999996</v>
       </c>
-      <c r="D5" s="8">
+      <c r="R29" s="15">
         <v>0.33329999999999999</v>
       </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.6</v>
+      <c r="S29" s="15">
+        <v>0</v>
+      </c>
+      <c r="T29" s="15">
+        <v>0.52400000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+    <row r="30" spans="15:20" ht="16" x14ac:dyDescent="0.35">
+      <c r="O30" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.8266</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.0652999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>4</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1.0652999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12">
-        <v>1.0815999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.1114999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="P30" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="Q30" s="15">
+        <v>0</v>
+      </c>
+      <c r="R30" s="15">
         <v>0.1429</v>
       </c>
-      <c r="E11" s="8">
+      <c r="S30" s="15">
         <v>0.85709999999999997</v>
       </c>
-      <c r="F11" s="8">
-        <v>1.2679</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>3</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E12" s="10">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2.2082000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="F13" s="3">
-        <v>2.2082000000000002</v>
+      <c r="T30" s="15">
+        <v>3.1669</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="M1:M1048576 F1:F1048576">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14:M1048576">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18:T30">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>